--- a/Attributesheet_FIS.xlsx
+++ b/Attributesheet_FIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ONDC\Desktop\NTS_\ONDC-NTS-Specifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ONDC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C599A827-1E89-493B-AD64-A36EE7D59A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19B32BAF-488A-4DE7-8F9F-3A6DF6F006E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="issue" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="165">
   <si>
     <t>Path</t>
   </si>
@@ -517,6 +517,9 @@
   <si>
     <t xml:space="preserve">Order updates </t>
   </si>
+  <si>
+    <t>Optional</t>
+  </si>
 </sst>
 </file>
 
@@ -936,8 +939,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>69</v>
@@ -1272,7 +1275,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>69</v>
@@ -1312,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>69</v>
@@ -1352,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>69</v>
@@ -1392,7 +1395,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>69</v>
@@ -1432,7 +1435,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>69</v>
@@ -29369,7 +29372,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
@@ -30153,8 +30156,8 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30194,7 +30197,9 @@
       <c r="C2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F2" s="17" t="s">
         <v>107</v>
       </c>
@@ -30209,6 +30214,9 @@
       <c r="C3" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D3" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F3" s="17" t="s">
         <v>108</v>
       </c>
@@ -30223,6 +30231,9 @@
       <c r="C4" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D4" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F4" s="17" t="s">
         <v>109</v>
       </c>
@@ -30237,6 +30248,9 @@
       <c r="C5" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D5" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F5" s="17" t="s">
         <v>103</v>
       </c>
@@ -30251,6 +30265,9 @@
       <c r="C6" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D6" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F6" s="17" t="s">
         <v>110</v>
       </c>
@@ -30265,6 +30282,9 @@
       <c r="C7" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D7" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F7" s="17" t="s">
         <v>111</v>
       </c>
@@ -30279,6 +30299,9 @@
       <c r="C8" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D8" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F8" s="17" t="s">
         <v>112</v>
       </c>
@@ -30293,6 +30316,9 @@
       <c r="C9" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D9" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F9" s="17" t="s">
         <v>113</v>
       </c>
@@ -30307,6 +30333,9 @@
       <c r="C10" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D10" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F10" s="17" t="s">
         <v>114</v>
       </c>
@@ -30321,6 +30350,9 @@
       <c r="C11" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D11" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F11" s="17" t="s">
         <v>115</v>
       </c>
@@ -30335,6 +30367,9 @@
       <c r="C12" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D12" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F12" s="17" t="s">
         <v>104</v>
       </c>
@@ -30349,6 +30384,9 @@
       <c r="C13" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D13" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F13" s="17" t="s">
         <v>116</v>
       </c>
@@ -30363,6 +30401,9 @@
       <c r="C14" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D14" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F14" s="17" t="s">
         <v>117</v>
       </c>
@@ -30377,6 +30418,9 @@
       <c r="C15" s="16" t="s">
         <v>69</v>
       </c>
+      <c r="D15" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F15" s="17" t="s">
         <v>118</v>
       </c>
@@ -30585,7 +30629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
@@ -30598,9 +30642,7 @@
       <c r="D28" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="16"/>
